--- a/biology/Zoologie/Bubble_Eye/Bubble_Eye.xlsx
+++ b/biology/Zoologie/Bubble_Eye/Bubble_Eye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Bubble Eye ou Uranoscope est une petite variété de poissons rouges avec des yeux pointant vers le haut qui sont accompagnés de deux gros sacs remplis de liquide. Les bulles sont très délicates, de sorte que le poisson doit être conservé à l'écart d'autres variétés plus turbulentes. Bien que les bulles d'air puissent repousser en cas de crevaison, la blessure peut laisser le poisson avec des infections. Les bulles sont tristement célèbres pour être aspirées dans les filtres et les siphons d'aquariums[1].
+Le Bubble Eye ou Uranoscope est une petite variété de poissons rouges avec des yeux pointant vers le haut qui sont accompagnés de deux gros sacs remplis de liquide. Les bulles sont très délicates, de sorte que le poisson doit être conservé à l'écart d'autres variétés plus turbulentes. Bien que les bulles d'air puissent repousser en cas de crevaison, la blessure peut laisser le poisson avec des infections. Les bulles sont tristement célèbres pour être aspirées dans les filtres et les siphons d'aquariums.
 </t>
         </is>
       </c>
